--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-address-status</t>
+    <t>https://interop.esante.gouv.fr/fhir/ig/ror/StructureDefinition/ror-address-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30</t>
+    <t>2023-03-17T09:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T09:52:06+00:00</t>
+    <t>2023-03-17T11:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T11:28:56+00:00</t>
+    <t>2023-03-19T15:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:24:51+00:00</t>
+    <t>2023-03-19T15:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:26+00:00</t>
+    <t>2023-03-19T15:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:25:59+00:00</t>
+    <t>2023-03-24T16:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T16:48:26+00:00</t>
+    <t>2023-04-06T16:24:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T16:24:50+00:00</t>
+    <t>2023-04-07T06:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T06:20:05+00:00</t>
+    <t>2023-04-07T09:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-address-status.xlsx
+++ b/ig/main/StructureDefinition-ror-address-status.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-07T09:27:55+00:00</t>
+    <t>2023-04-07T09:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
